--- a/Item_wise_sales.xlsx
+++ b/Item_wise_sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -740,7 +740,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -768,7 +768,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -782,7 +782,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
       <c r="D21">
         <f>SUM(D9:D20)</f>
         <v>5283</v>

--- a/Item_wise_sales.xlsx
+++ b/Item_wise_sales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Sti</t>
+  </si>
+  <si>
+    <t>Dek</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +776,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>5</v>
